--- a/storage/csv_files/global_posts.xlsx
+++ b/storage/csv_files/global_posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
   <si>
     <t>sn</t>
   </si>
@@ -175,12 +175,6 @@
   </si>
   <si>
     <t>Regional Youth Deputy Coordinator Africa</t>
-  </si>
-  <si>
-    <t>Deputy Youth Coordinator</t>
-  </si>
-  <si>
-    <t>Deputy Woman Coordinator</t>
   </si>
   <si>
     <t>is_national_wide</t>
@@ -996,18 +990,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1027,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B51" si="0">"2021"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
+        <f t="shared" ref="B3:B49" si="0">"2021"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
         <v>2021_02</v>
       </c>
       <c r="C3" t="s">
@@ -1075,7 +1071,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A51" si="1">A3+1</f>
+        <f t="shared" ref="A4:A49" si="1">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="str">
@@ -1303,7 +1299,7 @@
         <v>2021_13</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1312,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1325,7 +1321,7 @@
         <v>2021_14</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -1334,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,7 +1343,7 @@
         <v>2021_15</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1369,7 +1365,7 @@
         <v>2021_16</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -1391,7 +1387,7 @@
         <v>2021_17</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1413,7 +1409,7 @@
         <v>2021_18</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -1435,7 +1431,7 @@
         <v>2021_19</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -1457,7 +1453,7 @@
         <v>2021_20</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -1479,7 +1475,7 @@
         <v>2021_21</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -1501,7 +1497,7 @@
         <v>2021_22</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -1523,7 +1519,7 @@
         <v>2021_23</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -1545,7 +1541,7 @@
         <v>2021_24</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -1567,7 +1563,7 @@
         <v>2021_25</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
@@ -1581,7 +1577,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" ref="A27" si="2">A26+1</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" t="str">
@@ -1589,7 +1585,7 @@
         <v>2021_26</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -1603,15 +1599,15 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>A26+1</f>
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>2021_26</v>
+        <v>2021_27</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -1626,14 +1622,14 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>2021_27</v>
+        <v>2021_28</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -1648,14 +1644,14 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>2021_28</v>
+        <v>2021_29</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -1670,14 +1666,14 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>2021_30</v>
+      </c>
+      <c r="C31" t="s">
         <v>29</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>2021_29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -1692,20 +1688,20 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>2021_30</v>
+        <v>2021_31</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1714,14 +1710,14 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>2021_31</v>
+        <v>2021_32</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
@@ -1736,20 +1732,20 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>2021_32</v>
+        <v>2021_33</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1758,14 +1754,14 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>2021_33</v>
+        <v>2021_34</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -1780,20 +1776,20 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>2021_34</v>
+        <v>2021_35</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1802,14 +1798,14 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>2021_35</v>
+        <v>2021_36</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -1824,14 +1820,14 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>2021_36</v>
+        <v>2021_37</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -1846,14 +1842,14 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>2021_37</v>
+        <v>2021_38</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
@@ -1868,14 +1864,14 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>2021_38</v>
+        <v>2021_39</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
@@ -1890,14 +1886,14 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>2021_39</v>
+        <v>2021_40</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
@@ -1912,14 +1908,14 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>2021_40</v>
+        <v>2021_41</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
@@ -1934,14 +1930,14 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>2021_41</v>
+        <v>2021_42</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
@@ -1956,14 +1952,14 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>2021_42</v>
+        <v>2021_43</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
@@ -1978,14 +1974,14 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>2021_43</v>
+        <v>2021_44</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -2000,14 +1996,14 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>2021_44</v>
+        <v>2021_45</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -2022,14 +2018,14 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>2021_45</v>
+        <v>2021_46</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -2044,14 +2040,14 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>2021_46</v>
+        <v>2021_47</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -2066,14 +2062,14 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>2021_47</v>
+        <v>2021_48</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
@@ -2082,50 +2078,6 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>2021_48</v>
-      </c>
-      <c r="C50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>2021_49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
         <v>0</v>
       </c>
     </row>

--- a/storage/csv_files/global_posts.xlsx
+++ b/storage/csv_files/global_posts.xlsx
@@ -993,7 +993,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/storage/csv_files/global_posts.xlsx
+++ b/storage/csv_files/global_posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
   <si>
     <t>sn</t>
   </si>
@@ -184,13 +184,34 @@
   </si>
   <si>
     <t>Regional Deputy  Coordinator Americas</t>
+  </si>
+  <si>
+    <t>state_name</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Afria</t>
+  </si>
+  <si>
+    <t>Asia Pacific</t>
+  </si>
+  <si>
+    <t>Middle East</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +345,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -667,8 +694,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -990,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1036,7 @@
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1025,8 +1055,11 @@
       <c r="F1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1047,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1069,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A49" si="1">A3+1</f>
         <v>3</v>
@@ -1091,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1113,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1135,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1157,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1179,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1201,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1223,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1245,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1267,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1289,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1310,8 +1343,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1332,8 +1368,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1354,8 +1393,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1376,8 +1418,11 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1398,8 +1443,11 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1420,8 +1468,11 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1442,8 +1493,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1464,8 +1518,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1486,8 +1543,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1508,8 +1568,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1530,8 +1593,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1552,8 +1618,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1574,8 +1643,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1596,8 +1668,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1618,8 +1693,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1640,8 +1718,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1662,8 +1743,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1684,8 +1768,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1706,8 +1793,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1728,8 +1818,11 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1750,8 +1843,11 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1772,8 +1868,11 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1794,8 +1893,11 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1816,8 +1918,11 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1838,8 +1943,11 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1860,8 +1968,11 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1882,8 +1993,11 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1904,8 +2018,11 @@
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1926,8 +2043,11 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1948,8 +2068,11 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1970,8 +2093,11 @@
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1992,8 +2118,11 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2014,8 +2143,11 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2036,8 +2168,11 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2058,8 +2193,11 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2079,6 +2217,9 @@
       </c>
       <c r="F49">
         <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/storage/csv_files/global_posts.xlsx
+++ b/storage/csv_files/global_posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
   <si>
     <t>sn</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Middle East</t>
+  </si>
+  <si>
+    <t>Patron Council member</t>
   </si>
 </sst>
 </file>
@@ -1020,20 +1023,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1086,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B49" si="0">"2021"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
+        <f t="shared" ref="B3:B57" si="0">"2021"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
         <v>2021_02</v>
       </c>
       <c r="C3" t="s">
@@ -1104,7 +1107,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A49" si="1">A3+1</f>
+        <f t="shared" ref="A4:A57" si="1">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="str">
@@ -2220,6 +2223,28 @@
       </c>
       <c r="G49" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>2021_49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/storage/csv_files/global_posts.xlsx
+++ b/storage/csv_files/global_posts.xlsx
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B57" si="0">"2021"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
+        <f t="shared" ref="B3:B50" si="0">"2021"&amp;IF($A3&lt;10,"_0","_")&amp;$A3</f>
         <v>2021_02</v>
       </c>
       <c r="C3" t="s">
@@ -1099,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A57" si="1">A3+1</f>
+        <f t="shared" ref="A4:A50" si="1">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="str">

--- a/storage/csv_files/global_posts.xlsx
+++ b/storage/csv_files/global_posts.xlsx
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/storage/csv_files/global_posts.xlsx
+++ b/storage/csv_files/global_posts.xlsx
@@ -1025,15 +1025,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
@@ -1841,7 +1841,7 @@
         <v>6</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>0</v>

--- a/storage/csv_files/global_posts.xlsx
+++ b/storage/csv_files/global_posts.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="global_posts" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">global_posts!$A$1:$G$50</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -198,9 +201,6 @@
     <t>Americas</t>
   </si>
   <si>
-    <t>Afria</t>
-  </si>
-  <si>
     <t>Asia Pacific</t>
   </si>
   <si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Patron Council member</t>
+  </si>
+  <si>
+    <t>Africa</t>
   </si>
 </sst>
 </file>
@@ -761,9 +764,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -801,7 +804,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -873,7 +876,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1025,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1447,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1472,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1572,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1597,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1622,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1722,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1747,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1772,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1872,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1897,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1922,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2022,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2047,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2072,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2172,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2197,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2222,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2235,7 +2238,7 @@
         <v>2021_49</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -2248,6 +2251,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G50"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/storage/csv_files/global_posts.xlsx
+++ b/storage/csv_files/global_posts.xlsx
@@ -204,13 +204,13 @@
     <t>Asia Pacific</t>
   </si>
   <si>
-    <t>Middle East</t>
-  </si>
-  <si>
     <t>Patron Council member</t>
   </si>
   <si>
     <t>Africa</t>
+  </si>
+  <si>
+    <t>Middle East Asia</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,6 +1041,7 @@
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,7 +1067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1086,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1108,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A50" si="1">A3+1</f>
         <v>3</v>
@@ -1130,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1152,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1174,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1196,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1218,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1240,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1262,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1284,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1306,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1328,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1353,7 +1355,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1378,7 +1380,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1428,7 +1430,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1450,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1475,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1503,7 +1505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1528,7 +1530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1578,7 +1580,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1600,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1625,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1653,7 +1655,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1678,7 +1680,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1728,7 +1730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1750,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1775,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1803,7 +1805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1828,7 +1830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1878,7 +1880,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1900,10 +1902,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1925,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1953,7 +1955,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1978,7 +1980,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2028,7 +2030,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2075,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2103,7 +2105,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2128,7 +2130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2178,7 +2180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2200,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2225,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2238,7 +2240,7 @@
         <v>2021_49</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -2251,7 +2253,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G50"/>
+  <autoFilter ref="A1:G50">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Asia Pacific"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
